--- a/data/2025_data/2025Q2.xlsx
+++ b/data/2025_data/2025Q2.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="145">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="158">
   <si>
     <t>date of publication</t>
   </si>
@@ -255,7 +255,7 @@
     <t>Julien Chopin, Marcelo F. Aebi a and Clara Rigoni</t>
   </si>
   <si>
-    <t>University of Lausanne,  SimonFraser University, Burnaby, Canada; Laval University, Quebec,Canada</t>
+    <t>University of Lausanne,  Simon Fraser University, Burnaby, Canada; Laval University, Quebec,Canada</t>
   </si>
   <si>
     <t>INTERNATIONAL JOURNAL OF COMPARATIVE AND APPLIED CRIMINAL JUSTICE</t>
@@ -289,6 +289,82 @@
     <t>News article</t>
   </si>
   <si>
+    <t>30.06.2025</t>
+  </si>
+  <si>
+    <t>Trends in Patterns of Physical Exercise and Screen‐Time in Swedish Adolescents From 2013 to 2019</t>
+  </si>
+  <si>
+    <t>https://onlinelibrary.wiley.com/doi/10.1002/ejsc.12318</t>
+  </si>
+  <si>
+    <t>Jennifer Gothilander, Lena Almqvist, Camilla Eriksson, Johanna Fritz</t>
+  </si>
+  <si>
+    <t>Mälardalen University, Sweden</t>
+  </si>
+  <si>
+    <t>European Journal of Sport Science</t>
+  </si>
+  <si>
+    <t>Gender Equality Index</t>
+  </si>
+  <si>
+    <t>Promoting gender equality and women’s empowerment across the world</t>
+  </si>
+  <si>
+    <t>31.05.2025</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="Calibri"/>
+        <color theme="1"/>
+        <sz val="12.0"/>
+      </rPr>
+      <t>Mandated Board Ge</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <color theme="1"/>
+        <sz val="12.0"/>
+      </rPr>
+      <t>nder Diversity and ESG</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <color theme="1"/>
+        <sz val="40.0"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <color theme="1"/>
+        <sz val="12.0"/>
+      </rPr>
+      <t>Performance: Evidence From the European “Women on Boards” Directive</t>
+    </r>
+  </si>
+  <si>
+    <t>https://onlinelibrary.wiley.com/doi/10.1002/csr.3147</t>
+  </si>
+  <si>
+    <t>Carlos Fernández, Shams Pathan</t>
+  </si>
+  <si>
+    <t>Universidad de Oviedo, Spain; Newcastle University</t>
+  </si>
+  <si>
+    <t>Web section, index</t>
+  </si>
+  <si>
+    <t>N/A</t>
+  </si>
+  <si>
     <t>Methodological report</t>
   </si>
   <si>
@@ -307,9 +383,6 @@
     <t>Good practice</t>
   </si>
   <si>
-    <t>Web section, index</t>
-  </si>
-  <si>
     <t>Web section, GBV</t>
   </si>
   <si>
@@ -323,9 +396,6 @@
   </si>
   <si>
     <t>Work Programme</t>
-  </si>
-  <si>
-    <t>Promoting gender equality and women’s empowerment across the world</t>
   </si>
   <si>
     <t>Use of the tool</t>
@@ -467,7 +537,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="10">
+  <fonts count="13">
     <font>
       <sz val="12.0"/>
       <color theme="1"/>
@@ -496,6 +566,27 @@
       <name val="Calibri"/>
     </font>
     <font>
+      <sz val="12.0"/>
+      <color rgb="FFFF0000"/>
+      <name val="Aptos Narrow"/>
+    </font>
+    <font>
+      <sz val="12.0"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+    </font>
+    <font>
+      <sz val="12.0"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12.0"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
       <color theme="1"/>
       <name val="Aptos Narrow"/>
       <scheme val="minor"/>
@@ -508,11 +599,6 @@
     <font>
       <sz val="12.0"/>
       <color theme="0"/>
-      <name val="Aptos Narrow"/>
-    </font>
-    <font>
-      <sz val="12.0"/>
-      <color theme="1"/>
       <name val="Aptos Narrow"/>
     </font>
     <font>
@@ -560,7 +646,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="24">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -591,19 +677,40 @@
     <xf borderId="1" fillId="3" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="right" shrinkToFit="0" vertical="top" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="1" fillId="2" fontId="7" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment vertical="top"/>
+    </xf>
     <xf borderId="0" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" vertical="top"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf borderId="1" fillId="3" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="9" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="10" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="1" fillId="2" fontId="11" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf quotePrefix="1" borderId="0" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf quotePrefix="1" borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf borderId="1" fillId="4" fontId="9" numFmtId="0" xfId="0" applyBorder="1" applyFill="1" applyFont="1"/>
+    <xf borderId="1" fillId="4" fontId="12" numFmtId="0" xfId="0" applyBorder="1" applyFill="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle xfId="0" name="Normal" builtinId="0"/>
@@ -1398,7 +1505,7 @@
       <c r="D10" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="E10" s="2" t="s">
+      <c r="E10" s="8" t="s">
         <v>76</v>
       </c>
       <c r="F10" s="2" t="s">
@@ -1508,60 +1615,116 @@
       <c r="Z11" s="2"/>
     </row>
     <row r="12" ht="15.75" customHeight="1">
-      <c r="A12" s="2"/>
-      <c r="B12" s="2"/>
-      <c r="C12" s="2"/>
-      <c r="D12" s="2"/>
-      <c r="E12" s="2"/>
-      <c r="F12" s="2"/>
-      <c r="G12" s="2"/>
-      <c r="H12" s="2"/>
-      <c r="I12" s="2"/>
-      <c r="J12" s="2"/>
-      <c r="K12" s="2"/>
-      <c r="L12" s="2"/>
-      <c r="M12" s="2"/>
-      <c r="N12" s="2"/>
-      <c r="O12" s="2"/>
-      <c r="P12" s="2"/>
-      <c r="Q12" s="2"/>
-      <c r="R12" s="2"/>
-      <c r="S12" s="2"/>
-      <c r="T12" s="2"/>
-      <c r="U12" s="2"/>
-      <c r="V12" s="2"/>
-      <c r="W12" s="2"/>
-      <c r="X12" s="2"/>
-      <c r="Y12" s="2"/>
-      <c r="Z12" s="2"/>
+      <c r="A12" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="B12" s="11" t="s">
+        <v>88</v>
+      </c>
+      <c r="C12" s="11" t="s">
+        <v>89</v>
+      </c>
+      <c r="D12" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="E12" s="11" t="s">
+        <v>91</v>
+      </c>
+      <c r="F12" s="11" t="s">
+        <v>92</v>
+      </c>
+      <c r="G12" s="12" t="s">
+        <v>93</v>
+      </c>
+      <c r="H12" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="I12" s="12">
+        <v>2023.0</v>
+      </c>
+      <c r="J12" s="11" t="s">
+        <v>94</v>
+      </c>
+      <c r="K12" s="12">
+        <v>3.0</v>
+      </c>
+      <c r="L12" s="12">
+        <v>1.0</v>
+      </c>
+      <c r="M12" s="12">
+        <v>3.0</v>
+      </c>
+      <c r="N12" s="12">
+        <v>1.0</v>
+      </c>
+      <c r="O12" s="12">
+        <v>1.0</v>
+      </c>
+      <c r="P12" s="12"/>
+      <c r="Q12" s="12"/>
+      <c r="R12" s="12"/>
+      <c r="S12" s="12"/>
+      <c r="T12" s="12"/>
+      <c r="U12" s="12"/>
+      <c r="V12" s="12"/>
+      <c r="W12" s="12"/>
+      <c r="X12" s="12"/>
+      <c r="Y12" s="12"/>
+      <c r="Z12" s="12"/>
     </row>
     <row r="13" ht="15.75" customHeight="1">
-      <c r="A13" s="2"/>
-      <c r="B13" s="2"/>
-      <c r="C13" s="2"/>
-      <c r="D13" s="2"/>
-      <c r="E13" s="2"/>
-      <c r="F13" s="2"/>
-      <c r="G13" s="2"/>
-      <c r="H13" s="2"/>
-      <c r="I13" s="2"/>
-      <c r="J13" s="2"/>
-      <c r="K13" s="2"/>
-      <c r="L13" s="2"/>
-      <c r="M13" s="2"/>
-      <c r="N13" s="2"/>
-      <c r="O13" s="2"/>
-      <c r="P13" s="2"/>
-      <c r="Q13" s="2"/>
-      <c r="R13" s="2"/>
-      <c r="S13" s="2"/>
-      <c r="T13" s="2"/>
-      <c r="U13" s="2"/>
-      <c r="V13" s="2"/>
-      <c r="W13" s="2"/>
-      <c r="X13" s="2"/>
-      <c r="Y13" s="2"/>
-      <c r="Z13" s="2"/>
+      <c r="A13" s="13" t="s">
+        <v>95</v>
+      </c>
+      <c r="B13" s="11" t="s">
+        <v>96</v>
+      </c>
+      <c r="C13" s="14" t="s">
+        <v>97</v>
+      </c>
+      <c r="D13" s="11" t="s">
+        <v>98</v>
+      </c>
+      <c r="E13" s="11" t="s">
+        <v>99</v>
+      </c>
+      <c r="F13" s="15"/>
+      <c r="G13" s="11" t="s">
+        <v>93</v>
+      </c>
+      <c r="H13" s="11" t="s">
+        <v>100</v>
+      </c>
+      <c r="I13" s="11" t="s">
+        <v>101</v>
+      </c>
+      <c r="J13" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="K13" s="16"/>
+      <c r="L13" s="11">
+        <v>2.0</v>
+      </c>
+      <c r="M13" s="11">
+        <v>3.0</v>
+      </c>
+      <c r="N13" s="11">
+        <v>1.0</v>
+      </c>
+      <c r="O13" s="11">
+        <v>0.0</v>
+      </c>
+      <c r="P13" s="15"/>
+      <c r="Q13" s="15"/>
+      <c r="R13" s="15"/>
+      <c r="S13" s="15"/>
+      <c r="T13" s="15"/>
+      <c r="U13" s="15"/>
+      <c r="V13" s="15"/>
+      <c r="W13" s="15"/>
+      <c r="X13" s="15"/>
+      <c r="Y13" s="15"/>
+      <c r="Z13" s="15"/>
     </row>
     <row r="14" ht="15.75" customHeight="1">
       <c r="A14" s="2"/>
@@ -28996,11 +29159,12 @@
   </dataValidations>
   <hyperlinks>
     <hyperlink r:id="rId1" ref="F6"/>
+    <hyperlink r:id="rId2" ref="C13"/>
   </hyperlinks>
   <printOptions/>
   <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
   <pageSetup orientation="landscape"/>
-  <drawing r:id="rId2"/>
+  <drawing r:id="rId3"/>
 </worksheet>
 </file>
 
@@ -29018,73 +29182,73 @@
   </cols>
   <sheetData>
     <row r="1" ht="15.75" customHeight="1">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="17" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="2" ht="15.75" customHeight="1">
-      <c r="A2" s="10" t="s">
-        <v>87</v>
+      <c r="A2" s="17" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="3" ht="15.75" customHeight="1">
-      <c r="A3" s="10" t="s">
-        <v>88</v>
+      <c r="A3" s="17" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="4" ht="15.75" customHeight="1">
-      <c r="A4" s="10" t="s">
-        <v>89</v>
+      <c r="A4" s="17" t="s">
+        <v>104</v>
       </c>
     </row>
     <row r="5" ht="15.75" customHeight="1">
-      <c r="A5" s="10" t="s">
-        <v>90</v>
+      <c r="A5" s="17" t="s">
+        <v>105</v>
       </c>
     </row>
     <row r="6" ht="15.75" customHeight="1">
-      <c r="A6" s="10" t="s">
-        <v>91</v>
+      <c r="A6" s="17" t="s">
+        <v>106</v>
       </c>
     </row>
     <row r="7" ht="15.75" customHeight="1">
-      <c r="A7" s="10" t="s">
-        <v>92</v>
+      <c r="A7" s="17" t="s">
+        <v>107</v>
       </c>
     </row>
     <row r="8" ht="15.75" customHeight="1">
-      <c r="A8" s="10" t="s">
-        <v>93</v>
+      <c r="A8" s="17" t="s">
+        <v>100</v>
       </c>
     </row>
     <row r="9" ht="15.75" customHeight="1">
-      <c r="A9" s="10" t="s">
-        <v>94</v>
+      <c r="A9" s="17" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="10" ht="15.75" customHeight="1">
-      <c r="A10" s="10" t="s">
-        <v>95</v>
+      <c r="A10" s="17" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="11" ht="15.75" customHeight="1">
-      <c r="A11" s="10" t="s">
-        <v>96</v>
+      <c r="A11" s="17" t="s">
+        <v>110</v>
       </c>
     </row>
     <row r="12" ht="15.75" customHeight="1">
-      <c r="A12" s="10" t="s">
+      <c r="A12" s="17" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="13" ht="15.75" customHeight="1">
-      <c r="A13" s="10" t="s">
-        <v>97</v>
+      <c r="A13" s="17" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="14" ht="15.75" customHeight="1">
-      <c r="A14" s="10" t="s">
-        <v>98</v>
+      <c r="A14" s="17" t="s">
+        <v>112</v>
       </c>
     </row>
     <row r="15" ht="15.75" customHeight="1"/>
@@ -30096,28 +30260,28 @@
   </cols>
   <sheetData>
     <row r="1" ht="15.75" customHeight="1">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="18" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="2" ht="15.75" customHeight="1">
-      <c r="A2" s="11" t="s">
+      <c r="A2" s="18" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="3" ht="15.75" customHeight="1">
-      <c r="A3" s="11" t="s">
+      <c r="A3" s="18" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="4" ht="15.75" customHeight="1">
-      <c r="A4" s="11" t="s">
+      <c r="A4" s="18" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="5" ht="15.75" customHeight="1">
-      <c r="A5" s="11" t="s">
-        <v>99</v>
+      <c r="A5" s="18" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="6" ht="15.75" customHeight="1"/>
@@ -31143,105 +31307,105 @@
   </cols>
   <sheetData>
     <row r="1" ht="15.75" customHeight="1">
-      <c r="A1" s="12" t="s">
-        <v>100</v>
+      <c r="A1" s="19" t="s">
+        <v>113</v>
       </c>
-      <c r="B1" s="12" t="s">
-        <v>101</v>
+      <c r="B1" s="19" t="s">
+        <v>114</v>
       </c>
-      <c r="C1" s="12" t="s">
-        <v>102</v>
+      <c r="C1" s="19" t="s">
+        <v>115</v>
       </c>
-      <c r="D1" s="12" t="s">
-        <v>103</v>
+      <c r="D1" s="19" t="s">
+        <v>116</v>
       </c>
-      <c r="E1" s="12" t="s">
-        <v>104</v>
+      <c r="E1" s="19" t="s">
+        <v>117</v>
       </c>
     </row>
     <row r="2" ht="15.75" customHeight="1">
-      <c r="A2" s="10" t="s">
-        <v>105</v>
+      <c r="A2" s="17" t="s">
+        <v>118</v>
       </c>
-      <c r="B2" s="10" t="s">
+      <c r="B2" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="C2" s="10" t="s">
-        <v>106</v>
+      <c r="C2" s="17" t="s">
+        <v>119</v>
       </c>
-      <c r="D2" s="10" t="s">
-        <v>107</v>
+      <c r="D2" s="17" t="s">
+        <v>120</v>
       </c>
-      <c r="E2" s="10" t="s">
-        <v>108</v>
+      <c r="E2" s="17" t="s">
+        <v>121</v>
       </c>
     </row>
     <row r="3" ht="15.75" customHeight="1">
-      <c r="A3" s="10" t="s">
-        <v>109</v>
+      <c r="A3" s="17" t="s">
+        <v>122</v>
       </c>
-      <c r="B3" s="10" t="s">
+      <c r="B3" s="17" t="s">
         <v>79</v>
       </c>
-      <c r="C3" s="10" t="s">
-        <v>110</v>
+      <c r="C3" s="17" t="s">
+        <v>123</v>
       </c>
-      <c r="D3" s="10" t="s">
-        <v>107</v>
+      <c r="D3" s="17" t="s">
+        <v>120</v>
       </c>
-      <c r="E3" s="10" t="s">
-        <v>108</v>
+      <c r="E3" s="17" t="s">
+        <v>121</v>
       </c>
     </row>
     <row r="4" ht="15.75" customHeight="1">
-      <c r="A4" s="10" t="s">
-        <v>109</v>
+      <c r="A4" s="17" t="s">
+        <v>122</v>
       </c>
-      <c r="B4" s="10" t="s">
-        <v>111</v>
+      <c r="B4" s="17" t="s">
+        <v>124</v>
       </c>
-      <c r="C4" s="10" t="s">
-        <v>110</v>
+      <c r="C4" s="17" t="s">
+        <v>123</v>
       </c>
-      <c r="D4" s="10" t="s">
-        <v>107</v>
+      <c r="D4" s="17" t="s">
+        <v>120</v>
       </c>
-      <c r="E4" s="10" t="s">
-        <v>108</v>
+      <c r="E4" s="17" t="s">
+        <v>121</v>
       </c>
     </row>
     <row r="5" ht="15.75" customHeight="1">
-      <c r="A5" s="10" t="s">
-        <v>112</v>
+      <c r="A5" s="17" t="s">
+        <v>125</v>
       </c>
-      <c r="B5" s="10" t="s">
-        <v>113</v>
+      <c r="B5" s="17" t="s">
+        <v>126</v>
       </c>
-      <c r="C5" s="10" t="s">
-        <v>110</v>
+      <c r="C5" s="17" t="s">
+        <v>123</v>
       </c>
-      <c r="D5" s="10" t="s">
-        <v>107</v>
+      <c r="D5" s="17" t="s">
+        <v>120</v>
       </c>
-      <c r="E5" s="10" t="s">
-        <v>114</v>
+      <c r="E5" s="17" t="s">
+        <v>127</v>
       </c>
     </row>
     <row r="6" ht="15.75" customHeight="1">
-      <c r="A6" s="10" t="s">
-        <v>115</v>
+      <c r="A6" s="17" t="s">
+        <v>128</v>
       </c>
-      <c r="B6" s="10" t="s">
-        <v>116</v>
+      <c r="B6" s="17" t="s">
+        <v>129</v>
       </c>
-      <c r="C6" s="10" t="s">
-        <v>117</v>
+      <c r="C6" s="17" t="s">
+        <v>130</v>
       </c>
-      <c r="D6" s="10" t="s">
-        <v>107</v>
+      <c r="D6" s="17" t="s">
+        <v>120</v>
       </c>
-      <c r="E6" s="10" t="s">
-        <v>118</v>
+      <c r="E6" s="17" t="s">
+        <v>131</v>
       </c>
     </row>
     <row r="7" ht="15.75" customHeight="1"/>
@@ -31252,8 +31416,8 @@
     <row r="12" ht="15.75" customHeight="1"/>
     <row r="13" ht="15.75" customHeight="1"/>
     <row r="14" ht="15.75" customHeight="1">
-      <c r="A14" s="10" t="s">
-        <v>119</v>
+      <c r="A14" s="17" t="s">
+        <v>132</v>
       </c>
     </row>
     <row r="15" ht="15.75" customHeight="1"/>
@@ -31267,7 +31431,7 @@
     <row r="23" ht="15.75" customHeight="1"/>
     <row r="24" ht="15.75" customHeight="1"/>
     <row r="25" ht="15.75" customHeight="1">
-      <c r="C25" s="13"/>
+      <c r="C25" s="20"/>
     </row>
     <row r="26" ht="15.75" customHeight="1"/>
     <row r="27" ht="15.75" customHeight="1"/>
@@ -32266,53 +32430,53 @@
   </cols>
   <sheetData>
     <row r="1" ht="15.75" customHeight="1">
-      <c r="A1" s="14" t="s">
-        <v>120</v>
+      <c r="A1" s="21" t="s">
+        <v>133</v>
       </c>
-      <c r="B1" s="10" t="s">
-        <v>121</v>
+      <c r="B1" s="17" t="s">
+        <v>134</v>
       </c>
-      <c r="C1" s="10" t="s">
-        <v>122</v>
+      <c r="C1" s="17" t="s">
+        <v>135</v>
       </c>
-      <c r="D1" s="10" t="s">
-        <v>123</v>
+      <c r="D1" s="17" t="s">
+        <v>136</v>
       </c>
     </row>
     <row r="2" ht="15.75" customHeight="1">
-      <c r="A2" s="14" t="s">
-        <v>124</v>
+      <c r="A2" s="21" t="s">
+        <v>137</v>
       </c>
-      <c r="B2" s="10" t="s">
-        <v>125</v>
+      <c r="B2" s="17" t="s">
+        <v>138</v>
       </c>
-      <c r="C2" s="10" t="s">
-        <v>126</v>
+      <c r="C2" s="17" t="s">
+        <v>139</v>
       </c>
-      <c r="D2" s="10" t="s">
-        <v>127</v>
+      <c r="D2" s="17" t="s">
+        <v>140</v>
       </c>
     </row>
     <row r="3" ht="15.75" customHeight="1">
-      <c r="A3" s="14" t="s">
-        <v>128</v>
+      <c r="A3" s="21" t="s">
+        <v>141</v>
       </c>
-      <c r="B3" s="10" t="s">
-        <v>129</v>
+      <c r="B3" s="17" t="s">
+        <v>142</v>
       </c>
-      <c r="C3" s="10" t="s">
-        <v>130</v>
+      <c r="C3" s="17" t="s">
+        <v>143</v>
       </c>
-      <c r="D3" s="10" t="s">
-        <v>131</v>
+      <c r="D3" s="17" t="s">
+        <v>144</v>
       </c>
     </row>
     <row r="4" ht="15.75" customHeight="1">
-      <c r="A4" s="15">
+      <c r="A4" s="22">
         <v>0.0</v>
       </c>
-      <c r="B4" s="10" t="s">
-        <v>132</v>
+      <c r="B4" s="17" t="s">
+        <v>145</v>
       </c>
     </row>
     <row r="5" ht="15.75" customHeight="1"/>
@@ -33333,27 +33497,27 @@
   </cols>
   <sheetData>
     <row r="1" ht="15.75" customHeight="1">
-      <c r="A1" s="10">
+      <c r="A1" s="17">
         <v>3.0</v>
       </c>
-      <c r="B1" s="10" t="s">
-        <v>133</v>
+      <c r="B1" s="17" t="s">
+        <v>146</v>
       </c>
     </row>
     <row r="2" ht="15.75" customHeight="1">
-      <c r="A2" s="10">
+      <c r="A2" s="17">
         <v>2.0</v>
       </c>
-      <c r="B2" s="10" t="s">
-        <v>134</v>
+      <c r="B2" s="17" t="s">
+        <v>147</v>
       </c>
     </row>
     <row r="3" ht="15.75" customHeight="1">
-      <c r="A3" s="10">
+      <c r="A3" s="17">
         <v>1.0</v>
       </c>
-      <c r="B3" s="10" t="s">
-        <v>135</v>
+      <c r="B3" s="17" t="s">
+        <v>148</v>
       </c>
     </row>
     <row r="4" ht="15.75" customHeight="1"/>
@@ -34375,27 +34539,27 @@
   </cols>
   <sheetData>
     <row r="1" ht="15.75" customHeight="1">
-      <c r="A1" s="10">
+      <c r="A1" s="17">
         <v>1.0</v>
       </c>
-      <c r="B1" s="10" t="s">
-        <v>136</v>
+      <c r="B1" s="17" t="s">
+        <v>149</v>
       </c>
     </row>
     <row r="2" ht="15.75" customHeight="1">
-      <c r="A2" s="10">
+      <c r="A2" s="17">
         <v>0.0</v>
       </c>
-      <c r="B2" s="10" t="s">
-        <v>137</v>
+      <c r="B2" s="17" t="s">
+        <v>150</v>
       </c>
     </row>
     <row r="3" ht="15.75" customHeight="1">
-      <c r="A3" s="14" t="s">
-        <v>138</v>
+      <c r="A3" s="21" t="s">
+        <v>151</v>
       </c>
-      <c r="B3" s="10" t="s">
-        <v>139</v>
+      <c r="B3" s="17" t="s">
+        <v>152</v>
       </c>
     </row>
     <row r="4" ht="15.75" customHeight="1"/>
@@ -35418,50 +35582,50 @@
   </cols>
   <sheetData>
     <row r="1" ht="15.75" customHeight="1">
-      <c r="A1" s="16" t="s">
-        <v>140</v>
+      <c r="A1" s="23" t="s">
+        <v>153</v>
       </c>
-      <c r="B1" s="16" t="s">
-        <v>141</v>
+      <c r="B1" s="23" t="s">
+        <v>154</v>
       </c>
     </row>
     <row r="2" ht="16.5" customHeight="1">
-      <c r="A2" s="10" t="s">
-        <v>142</v>
+      <c r="A2" s="17" t="s">
+        <v>155</v>
       </c>
-      <c r="B2" s="10">
+      <c r="B2" s="17">
         <v>0.4</v>
       </c>
     </row>
     <row r="3" ht="15.75" customHeight="1">
-      <c r="A3" s="10" t="s">
-        <v>115</v>
+      <c r="A3" s="17" t="s">
+        <v>128</v>
       </c>
-      <c r="B3" s="10">
+      <c r="B3" s="17">
         <v>0.2</v>
       </c>
     </row>
     <row r="4" ht="15.75" customHeight="1">
-      <c r="A4" s="10" t="s">
-        <v>113</v>
+      <c r="A4" s="17" t="s">
+        <v>126</v>
       </c>
-      <c r="B4" s="10">
+      <c r="B4" s="17">
         <v>0.2</v>
       </c>
     </row>
     <row r="5" ht="15.75" customHeight="1">
-      <c r="A5" s="10" t="s">
-        <v>143</v>
+      <c r="A5" s="17" t="s">
+        <v>156</v>
       </c>
-      <c r="B5" s="10">
+      <c r="B5" s="17">
         <v>0.1</v>
       </c>
     </row>
     <row r="6" ht="15.75" customHeight="1">
-      <c r="A6" s="10" t="s">
-        <v>144</v>
+      <c r="A6" s="17" t="s">
+        <v>157</v>
       </c>
-      <c r="B6" s="10">
+      <c r="B6" s="17">
         <v>0.1</v>
       </c>
     </row>

--- a/data/2025_data/2025Q2.xlsx
+++ b/data/2025_data/2025Q2.xlsx
@@ -537,7 +537,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="13">
+  <fonts count="14">
     <font>
       <sz val="12.0"/>
       <color theme="1"/>
@@ -557,6 +557,12 @@
     <font>
       <sz val="12.0"/>
       <color rgb="FF000000"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12.0"/>
+      <color rgb="FF0000FF"/>
       <name val="Calibri"/>
     </font>
     <font>
@@ -646,7 +652,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="25">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -669,6 +675,9 @@
       <alignment shrinkToFit="0" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="top" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="top" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
@@ -677,40 +686,40 @@
     <xf borderId="1" fillId="3" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="right" shrinkToFit="0" vertical="top" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="top"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" vertical="top"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="top"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" vertical="top"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="1" fillId="3" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment vertical="top"/>
     </xf>
-    <xf borderId="1" fillId="3" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="9" numFmtId="0" xfId="0" applyFont="1"/>
     <xf borderId="0" fillId="0" fontId="10" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="1" fillId="2" fontId="11" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="11" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="1" fillId="2" fontId="12" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf quotePrefix="1" borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf quotePrefix="1" borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf borderId="1" fillId="4" fontId="12" numFmtId="0" xfId="0" applyBorder="1" applyFill="1" applyFont="1"/>
+    <xf borderId="1" fillId="4" fontId="13" numFmtId="0" xfId="0" applyBorder="1" applyFill="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle xfId="0" name="Normal" builtinId="0"/>
@@ -1151,7 +1160,7 @@
       <c r="B4" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C4" s="7" t="s">
         <v>32</v>
       </c>
       <c r="D4" s="2" t="s">
@@ -1282,7 +1291,7 @@
       <c r="E6" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="F6" s="7" t="s">
+      <c r="F6" s="8" t="s">
         <v>50</v>
       </c>
       <c r="G6" s="5"/>
@@ -1385,7 +1394,7 @@
       <c r="D8" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="E8" s="8" t="s">
+      <c r="E8" s="9" t="s">
         <v>61</v>
       </c>
       <c r="F8" s="2" t="s">
@@ -1462,7 +1471,7 @@
       <c r="J9" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="K9" s="9"/>
+      <c r="K9" s="10"/>
       <c r="L9" s="2">
         <v>1.0</v>
       </c>
@@ -1505,7 +1514,7 @@
       <c r="D10" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="E10" s="8" t="s">
+      <c r="E10" s="9" t="s">
         <v>76</v>
       </c>
       <c r="F10" s="2" t="s">
@@ -1523,7 +1532,7 @@
       <c r="J10" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="K10" s="9"/>
+      <c r="K10" s="10"/>
       <c r="L10" s="2">
         <v>1.0</v>
       </c>
@@ -1533,7 +1542,7 @@
       <c r="N10" s="2">
         <v>1.0</v>
       </c>
-      <c r="O10" s="8">
+      <c r="O10" s="9">
         <v>9.0</v>
       </c>
       <c r="P10" s="2">
@@ -1584,7 +1593,7 @@
       <c r="J11" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="K11" s="9"/>
+      <c r="K11" s="10"/>
       <c r="L11" s="2">
         <v>1.0</v>
       </c>
@@ -1615,116 +1624,116 @@
       <c r="Z11" s="2"/>
     </row>
     <row r="12" ht="15.75" customHeight="1">
-      <c r="A12" s="10" t="s">
+      <c r="A12" s="11" t="s">
         <v>87</v>
       </c>
-      <c r="B12" s="11" t="s">
+      <c r="B12" s="12" t="s">
         <v>88</v>
       </c>
-      <c r="C12" s="11" t="s">
+      <c r="C12" s="12" t="s">
         <v>89</v>
       </c>
-      <c r="D12" s="11" t="s">
+      <c r="D12" s="12" t="s">
         <v>90</v>
       </c>
-      <c r="E12" s="11" t="s">
+      <c r="E12" s="12" t="s">
         <v>91</v>
       </c>
-      <c r="F12" s="11" t="s">
+      <c r="F12" s="12" t="s">
         <v>92</v>
       </c>
-      <c r="G12" s="12" t="s">
+      <c r="G12" s="13" t="s">
         <v>93</v>
       </c>
-      <c r="H12" s="11" t="s">
+      <c r="H12" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="I12" s="12">
+      <c r="I12" s="13">
         <v>2023.0</v>
       </c>
-      <c r="J12" s="11" t="s">
+      <c r="J12" s="12" t="s">
         <v>94</v>
       </c>
-      <c r="K12" s="12">
+      <c r="K12" s="13">
         <v>3.0</v>
       </c>
-      <c r="L12" s="12">
+      <c r="L12" s="13">
         <v>1.0</v>
       </c>
-      <c r="M12" s="12">
+      <c r="M12" s="13">
         <v>3.0</v>
       </c>
-      <c r="N12" s="12">
+      <c r="N12" s="13">
         <v>1.0</v>
       </c>
-      <c r="O12" s="12">
+      <c r="O12" s="13">
         <v>1.0</v>
       </c>
-      <c r="P12" s="12"/>
-      <c r="Q12" s="12"/>
-      <c r="R12" s="12"/>
-      <c r="S12" s="12"/>
-      <c r="T12" s="12"/>
-      <c r="U12" s="12"/>
-      <c r="V12" s="12"/>
-      <c r="W12" s="12"/>
-      <c r="X12" s="12"/>
-      <c r="Y12" s="12"/>
-      <c r="Z12" s="12"/>
+      <c r="P12" s="13"/>
+      <c r="Q12" s="13"/>
+      <c r="R12" s="13"/>
+      <c r="S12" s="13"/>
+      <c r="T12" s="13"/>
+      <c r="U12" s="13"/>
+      <c r="V12" s="13"/>
+      <c r="W12" s="13"/>
+      <c r="X12" s="13"/>
+      <c r="Y12" s="13"/>
+      <c r="Z12" s="13"/>
     </row>
     <row r="13" ht="15.75" customHeight="1">
-      <c r="A13" s="13" t="s">
+      <c r="A13" s="14" t="s">
         <v>95</v>
       </c>
-      <c r="B13" s="11" t="s">
+      <c r="B13" s="12" t="s">
         <v>96</v>
       </c>
-      <c r="C13" s="14" t="s">
+      <c r="C13" s="15" t="s">
         <v>97</v>
       </c>
-      <c r="D13" s="11" t="s">
+      <c r="D13" s="12" t="s">
         <v>98</v>
       </c>
-      <c r="E13" s="11" t="s">
+      <c r="E13" s="12" t="s">
         <v>99</v>
       </c>
-      <c r="F13" s="15"/>
-      <c r="G13" s="11" t="s">
+      <c r="F13" s="16"/>
+      <c r="G13" s="12" t="s">
         <v>93</v>
       </c>
-      <c r="H13" s="11" t="s">
+      <c r="H13" s="12" t="s">
         <v>100</v>
       </c>
-      <c r="I13" s="11" t="s">
+      <c r="I13" s="12" t="s">
         <v>101</v>
       </c>
-      <c r="J13" s="11" t="s">
+      <c r="J13" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="K13" s="16"/>
-      <c r="L13" s="11">
+      <c r="K13" s="17"/>
+      <c r="L13" s="12">
         <v>2.0</v>
       </c>
-      <c r="M13" s="11">
+      <c r="M13" s="12">
         <v>3.0</v>
       </c>
-      <c r="N13" s="11">
+      <c r="N13" s="12">
         <v>1.0</v>
       </c>
-      <c r="O13" s="11">
+      <c r="O13" s="12">
         <v>0.0</v>
       </c>
-      <c r="P13" s="15"/>
-      <c r="Q13" s="15"/>
-      <c r="R13" s="15"/>
-      <c r="S13" s="15"/>
-      <c r="T13" s="15"/>
-      <c r="U13" s="15"/>
-      <c r="V13" s="15"/>
-      <c r="W13" s="15"/>
-      <c r="X13" s="15"/>
-      <c r="Y13" s="15"/>
-      <c r="Z13" s="15"/>
+      <c r="P13" s="16"/>
+      <c r="Q13" s="16"/>
+      <c r="R13" s="16"/>
+      <c r="S13" s="16"/>
+      <c r="T13" s="16"/>
+      <c r="U13" s="16"/>
+      <c r="V13" s="16"/>
+      <c r="W13" s="16"/>
+      <c r="X13" s="16"/>
+      <c r="Y13" s="16"/>
+      <c r="Z13" s="16"/>
     </row>
     <row r="14" ht="15.75" customHeight="1">
       <c r="A14" s="2"/>
@@ -29158,13 +29167,14 @@
     </dataValidation>
   </dataValidations>
   <hyperlinks>
-    <hyperlink r:id="rId1" ref="F6"/>
-    <hyperlink r:id="rId2" ref="C13"/>
+    <hyperlink r:id="rId1" ref="C4"/>
+    <hyperlink r:id="rId2" ref="F6"/>
+    <hyperlink r:id="rId3" ref="C13"/>
   </hyperlinks>
   <printOptions/>
   <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
   <pageSetup orientation="landscape"/>
-  <drawing r:id="rId3"/>
+  <drawing r:id="rId4"/>
 </worksheet>
 </file>
 
@@ -29182,72 +29192,72 @@
   </cols>
   <sheetData>
     <row r="1" ht="15.75" customHeight="1">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="18" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="2" ht="15.75" customHeight="1">
-      <c r="A2" s="17" t="s">
+      <c r="A2" s="18" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="3" ht="15.75" customHeight="1">
-      <c r="A3" s="17" t="s">
+      <c r="A3" s="18" t="s">
         <v>103</v>
       </c>
     </row>
     <row r="4" ht="15.75" customHeight="1">
-      <c r="A4" s="17" t="s">
+      <c r="A4" s="18" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="5" ht="15.75" customHeight="1">
-      <c r="A5" s="17" t="s">
+      <c r="A5" s="18" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="6" ht="15.75" customHeight="1">
-      <c r="A6" s="17" t="s">
+      <c r="A6" s="18" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="7" ht="15.75" customHeight="1">
-      <c r="A7" s="17" t="s">
+      <c r="A7" s="18" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="8" ht="15.75" customHeight="1">
-      <c r="A8" s="17" t="s">
+      <c r="A8" s="18" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="9" ht="15.75" customHeight="1">
-      <c r="A9" s="17" t="s">
+      <c r="A9" s="18" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="10" ht="15.75" customHeight="1">
-      <c r="A10" s="17" t="s">
+      <c r="A10" s="18" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="11" ht="15.75" customHeight="1">
-      <c r="A11" s="17" t="s">
+      <c r="A11" s="18" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="12" ht="15.75" customHeight="1">
-      <c r="A12" s="17" t="s">
+      <c r="A12" s="18" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="13" ht="15.75" customHeight="1">
-      <c r="A13" s="17" t="s">
+      <c r="A13" s="18" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="14" ht="15.75" customHeight="1">
-      <c r="A14" s="17" t="s">
+      <c r="A14" s="18" t="s">
         <v>112</v>
       </c>
     </row>
@@ -30260,27 +30270,27 @@
   </cols>
   <sheetData>
     <row r="1" ht="15.75" customHeight="1">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="19" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="2" ht="15.75" customHeight="1">
-      <c r="A2" s="18" t="s">
+      <c r="A2" s="19" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="3" ht="15.75" customHeight="1">
-      <c r="A3" s="18" t="s">
+      <c r="A3" s="19" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="4" ht="15.75" customHeight="1">
-      <c r="A4" s="18" t="s">
+      <c r="A4" s="19" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="5" ht="15.75" customHeight="1">
-      <c r="A5" s="18" t="s">
+      <c r="A5" s="19" t="s">
         <v>94</v>
       </c>
     </row>
@@ -31307,104 +31317,104 @@
   </cols>
   <sheetData>
     <row r="1" ht="15.75" customHeight="1">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="20" t="s">
         <v>113</v>
       </c>
-      <c r="B1" s="19" t="s">
+      <c r="B1" s="20" t="s">
         <v>114</v>
       </c>
-      <c r="C1" s="19" t="s">
+      <c r="C1" s="20" t="s">
         <v>115</v>
       </c>
-      <c r="D1" s="19" t="s">
+      <c r="D1" s="20" t="s">
         <v>116</v>
       </c>
-      <c r="E1" s="19" t="s">
+      <c r="E1" s="20" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="2" ht="15.75" customHeight="1">
-      <c r="A2" s="17" t="s">
+      <c r="A2" s="18" t="s">
         <v>118</v>
       </c>
-      <c r="B2" s="17" t="s">
+      <c r="B2" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="C2" s="17" t="s">
+      <c r="C2" s="18" t="s">
         <v>119</v>
       </c>
-      <c r="D2" s="17" t="s">
+      <c r="D2" s="18" t="s">
         <v>120</v>
       </c>
-      <c r="E2" s="17" t="s">
+      <c r="E2" s="18" t="s">
         <v>121</v>
       </c>
     </row>
     <row r="3" ht="15.75" customHeight="1">
-      <c r="A3" s="17" t="s">
+      <c r="A3" s="18" t="s">
         <v>122</v>
       </c>
-      <c r="B3" s="17" t="s">
+      <c r="B3" s="18" t="s">
         <v>79</v>
       </c>
-      <c r="C3" s="17" t="s">
+      <c r="C3" s="18" t="s">
         <v>123</v>
       </c>
-      <c r="D3" s="17" t="s">
+      <c r="D3" s="18" t="s">
         <v>120</v>
       </c>
-      <c r="E3" s="17" t="s">
+      <c r="E3" s="18" t="s">
         <v>121</v>
       </c>
     </row>
     <row r="4" ht="15.75" customHeight="1">
-      <c r="A4" s="17" t="s">
+      <c r="A4" s="18" t="s">
         <v>122</v>
       </c>
-      <c r="B4" s="17" t="s">
+      <c r="B4" s="18" t="s">
         <v>124</v>
       </c>
-      <c r="C4" s="17" t="s">
+      <c r="C4" s="18" t="s">
         <v>123</v>
       </c>
-      <c r="D4" s="17" t="s">
+      <c r="D4" s="18" t="s">
         <v>120</v>
       </c>
-      <c r="E4" s="17" t="s">
+      <c r="E4" s="18" t="s">
         <v>121</v>
       </c>
     </row>
     <row r="5" ht="15.75" customHeight="1">
-      <c r="A5" s="17" t="s">
+      <c r="A5" s="18" t="s">
         <v>125</v>
       </c>
-      <c r="B5" s="17" t="s">
+      <c r="B5" s="18" t="s">
         <v>126</v>
       </c>
-      <c r="C5" s="17" t="s">
+      <c r="C5" s="18" t="s">
         <v>123</v>
       </c>
-      <c r="D5" s="17" t="s">
+      <c r="D5" s="18" t="s">
         <v>120</v>
       </c>
-      <c r="E5" s="17" t="s">
+      <c r="E5" s="18" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="6" ht="15.75" customHeight="1">
-      <c r="A6" s="17" t="s">
+      <c r="A6" s="18" t="s">
         <v>128</v>
       </c>
-      <c r="B6" s="17" t="s">
+      <c r="B6" s="18" t="s">
         <v>129</v>
       </c>
-      <c r="C6" s="17" t="s">
+      <c r="C6" s="18" t="s">
         <v>130</v>
       </c>
-      <c r="D6" s="17" t="s">
+      <c r="D6" s="18" t="s">
         <v>120</v>
       </c>
-      <c r="E6" s="17" t="s">
+      <c r="E6" s="18" t="s">
         <v>131</v>
       </c>
     </row>
@@ -31416,7 +31426,7 @@
     <row r="12" ht="15.75" customHeight="1"/>
     <row r="13" ht="15.75" customHeight="1"/>
     <row r="14" ht="15.75" customHeight="1">
-      <c r="A14" s="17" t="s">
+      <c r="A14" s="18" t="s">
         <v>132</v>
       </c>
     </row>
@@ -31431,7 +31441,7 @@
     <row r="23" ht="15.75" customHeight="1"/>
     <row r="24" ht="15.75" customHeight="1"/>
     <row r="25" ht="15.75" customHeight="1">
-      <c r="C25" s="20"/>
+      <c r="C25" s="21"/>
     </row>
     <row r="26" ht="15.75" customHeight="1"/>
     <row r="27" ht="15.75" customHeight="1"/>
@@ -32430,52 +32440,52 @@
   </cols>
   <sheetData>
     <row r="1" ht="15.75" customHeight="1">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="22" t="s">
         <v>133</v>
       </c>
-      <c r="B1" s="17" t="s">
+      <c r="B1" s="18" t="s">
         <v>134</v>
       </c>
-      <c r="C1" s="17" t="s">
+      <c r="C1" s="18" t="s">
         <v>135</v>
       </c>
-      <c r="D1" s="17" t="s">
+      <c r="D1" s="18" t="s">
         <v>136</v>
       </c>
     </row>
     <row r="2" ht="15.75" customHeight="1">
-      <c r="A2" s="21" t="s">
+      <c r="A2" s="22" t="s">
         <v>137</v>
       </c>
-      <c r="B2" s="17" t="s">
+      <c r="B2" s="18" t="s">
         <v>138</v>
       </c>
-      <c r="C2" s="17" t="s">
+      <c r="C2" s="18" t="s">
         <v>139</v>
       </c>
-      <c r="D2" s="17" t="s">
+      <c r="D2" s="18" t="s">
         <v>140</v>
       </c>
     </row>
     <row r="3" ht="15.75" customHeight="1">
-      <c r="A3" s="21" t="s">
+      <c r="A3" s="22" t="s">
         <v>141</v>
       </c>
-      <c r="B3" s="17" t="s">
+      <c r="B3" s="18" t="s">
         <v>142</v>
       </c>
-      <c r="C3" s="17" t="s">
+      <c r="C3" s="18" t="s">
         <v>143</v>
       </c>
-      <c r="D3" s="17" t="s">
+      <c r="D3" s="18" t="s">
         <v>144</v>
       </c>
     </row>
     <row r="4" ht="15.75" customHeight="1">
-      <c r="A4" s="22">
+      <c r="A4" s="23">
         <v>0.0</v>
       </c>
-      <c r="B4" s="17" t="s">
+      <c r="B4" s="18" t="s">
         <v>145</v>
       </c>
     </row>
@@ -33497,26 +33507,26 @@
   </cols>
   <sheetData>
     <row r="1" ht="15.75" customHeight="1">
-      <c r="A1" s="17">
+      <c r="A1" s="18">
         <v>3.0</v>
       </c>
-      <c r="B1" s="17" t="s">
+      <c r="B1" s="18" t="s">
         <v>146</v>
       </c>
     </row>
     <row r="2" ht="15.75" customHeight="1">
-      <c r="A2" s="17">
+      <c r="A2" s="18">
         <v>2.0</v>
       </c>
-      <c r="B2" s="17" t="s">
+      <c r="B2" s="18" t="s">
         <v>147</v>
       </c>
     </row>
     <row r="3" ht="15.75" customHeight="1">
-      <c r="A3" s="17">
+      <c r="A3" s="18">
         <v>1.0</v>
       </c>
-      <c r="B3" s="17" t="s">
+      <c r="B3" s="18" t="s">
         <v>148</v>
       </c>
     </row>
@@ -34539,26 +34549,26 @@
   </cols>
   <sheetData>
     <row r="1" ht="15.75" customHeight="1">
-      <c r="A1" s="17">
+      <c r="A1" s="18">
         <v>1.0</v>
       </c>
-      <c r="B1" s="17" t="s">
+      <c r="B1" s="18" t="s">
         <v>149</v>
       </c>
     </row>
     <row r="2" ht="15.75" customHeight="1">
-      <c r="A2" s="17">
+      <c r="A2" s="18">
         <v>0.0</v>
       </c>
-      <c r="B2" s="17" t="s">
+      <c r="B2" s="18" t="s">
         <v>150</v>
       </c>
     </row>
     <row r="3" ht="15.75" customHeight="1">
-      <c r="A3" s="21" t="s">
+      <c r="A3" s="22" t="s">
         <v>151</v>
       </c>
-      <c r="B3" s="17" t="s">
+      <c r="B3" s="18" t="s">
         <v>152</v>
       </c>
     </row>
@@ -35582,50 +35592,50 @@
   </cols>
   <sheetData>
     <row r="1" ht="15.75" customHeight="1">
-      <c r="A1" s="23" t="s">
+      <c r="A1" s="24" t="s">
         <v>153</v>
       </c>
-      <c r="B1" s="23" t="s">
+      <c r="B1" s="24" t="s">
         <v>154</v>
       </c>
     </row>
     <row r="2" ht="16.5" customHeight="1">
-      <c r="A2" s="17" t="s">
+      <c r="A2" s="18" t="s">
         <v>155</v>
       </c>
-      <c r="B2" s="17">
+      <c r="B2" s="18">
         <v>0.4</v>
       </c>
     </row>
     <row r="3" ht="15.75" customHeight="1">
-      <c r="A3" s="17" t="s">
+      <c r="A3" s="18" t="s">
         <v>128</v>
       </c>
-      <c r="B3" s="17">
+      <c r="B3" s="18">
         <v>0.2</v>
       </c>
     </row>
     <row r="4" ht="15.75" customHeight="1">
-      <c r="A4" s="17" t="s">
+      <c r="A4" s="18" t="s">
         <v>126</v>
       </c>
-      <c r="B4" s="17">
+      <c r="B4" s="18">
         <v>0.2</v>
       </c>
     </row>
     <row r="5" ht="15.75" customHeight="1">
-      <c r="A5" s="17" t="s">
+      <c r="A5" s="18" t="s">
         <v>156</v>
       </c>
-      <c r="B5" s="17">
+      <c r="B5" s="18">
         <v>0.1</v>
       </c>
     </row>
     <row r="6" ht="15.75" customHeight="1">
-      <c r="A6" s="17" t="s">
+      <c r="A6" s="18" t="s">
         <v>157</v>
       </c>
-      <c r="B6" s="17">
+      <c r="B6" s="18">
         <v>0.1</v>
       </c>
     </row>
